--- a/natmiOut/OldD7/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Robo1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H2">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I2">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J2">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>24.7676383478419</v>
+        <v>0.4133443333333333</v>
       </c>
       <c r="N2">
-        <v>24.7676383478419</v>
+        <v>1.240033</v>
       </c>
       <c r="O2">
-        <v>0.8588943566630195</v>
+        <v>0.01404462990513909</v>
       </c>
       <c r="P2">
-        <v>0.8588943566630195</v>
+        <v>0.01404462990513909</v>
       </c>
       <c r="Q2">
-        <v>2.878845773027399</v>
+        <v>0.06803000153877778</v>
       </c>
       <c r="R2">
-        <v>2.878845773027399</v>
+        <v>0.6122700138489999</v>
       </c>
       <c r="S2">
-        <v>0.02671751250137546</v>
+        <v>0.0004895743373702182</v>
       </c>
       <c r="T2">
-        <v>0.02671751250137546</v>
+        <v>0.0004895743373702182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H3">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I3">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J3">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.06901444385794</v>
+        <v>24.84824866666667</v>
       </c>
       <c r="N3">
-        <v>4.06901444385794</v>
+        <v>74.544746</v>
       </c>
       <c r="O3">
-        <v>0.1411056433369805</v>
+        <v>0.8442947638833787</v>
       </c>
       <c r="P3">
-        <v>0.1411056433369805</v>
+        <v>0.8442947638833787</v>
       </c>
       <c r="Q3">
-        <v>0.4729584980034463</v>
+        <v>4.089632441304222</v>
       </c>
       <c r="R3">
-        <v>0.4729584980034463</v>
+        <v>36.806691971738</v>
       </c>
       <c r="S3">
-        <v>0.004389354477211368</v>
+        <v>0.02943082533076235</v>
       </c>
       <c r="T3">
-        <v>0.004389354477211368</v>
+        <v>0.02943082533076235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.21809165958846</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H4">
-        <v>3.21809165958846</v>
+        <v>0.493753</v>
       </c>
       <c r="I4">
-        <v>0.8612334317504547</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J4">
-        <v>0.8612334317504547</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>24.7676383478419</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N4">
-        <v>24.7676383478419</v>
+        <v>0.024861</v>
       </c>
       <c r="O4">
-        <v>0.8588943566630195</v>
+        <v>0.0002815760097285016</v>
       </c>
       <c r="P4">
-        <v>0.8588943566630195</v>
+        <v>0.0002815760097285015</v>
       </c>
       <c r="Q4">
-        <v>79.70453039489333</v>
+        <v>0.001363910370333334</v>
       </c>
       <c r="R4">
-        <v>79.70453039489333</v>
+        <v>0.012275193333</v>
       </c>
       <c r="S4">
-        <v>0.7397085342999914</v>
+        <v>9.815309432378814E-06</v>
       </c>
       <c r="T4">
-        <v>0.7397085342999914</v>
+        <v>9.815309432378812E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,57 +717,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.21809165958846</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H5">
-        <v>3.21809165958846</v>
+        <v>0.493753</v>
       </c>
       <c r="I5">
-        <v>0.8612334317504547</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J5">
-        <v>0.8612334317504547</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.06901444385794</v>
+        <v>4.160894333333333</v>
       </c>
       <c r="N5">
-        <v>4.06901444385794</v>
+        <v>12.482683</v>
       </c>
       <c r="O5">
-        <v>0.1411056433369805</v>
+        <v>0.1413790302017538</v>
       </c>
       <c r="P5">
-        <v>0.1411056433369805</v>
+        <v>0.1413790302017538</v>
       </c>
       <c r="Q5">
-        <v>13.09446144452421</v>
+        <v>0.6848180199221111</v>
       </c>
       <c r="R5">
-        <v>13.09446144452421</v>
+        <v>6.163362179299</v>
       </c>
       <c r="S5">
-        <v>0.1215248974504634</v>
+        <v>0.004928256956328975</v>
       </c>
       <c r="T5">
-        <v>0.1215248974504634</v>
+        <v>0.004928256956328975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.402282092126498</v>
+        <v>3.368329</v>
       </c>
       <c r="H6">
-        <v>0.402282092126498</v>
+        <v>10.104987</v>
       </c>
       <c r="I6">
-        <v>0.1076597012709584</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J6">
-        <v>0.1076597012709584</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>24.7676383478419</v>
+        <v>0.4133443333333333</v>
       </c>
       <c r="N6">
-        <v>24.7676383478419</v>
+        <v>1.240033</v>
       </c>
       <c r="O6">
-        <v>0.8588943566630195</v>
+        <v>0.01404462990513909</v>
       </c>
       <c r="P6">
-        <v>0.8588943566630195</v>
+        <v>0.01404462990513909</v>
       </c>
       <c r="Q6">
-        <v>9.963577371602319</v>
+        <v>1.392279704952333</v>
       </c>
       <c r="R6">
-        <v>9.963577371602319</v>
+        <v>12.530517344571</v>
       </c>
       <c r="S6">
-        <v>0.09246830986165271</v>
+        <v>0.01001946786077182</v>
       </c>
       <c r="T6">
-        <v>0.09246830986165271</v>
+        <v>0.01001946786077182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.368329</v>
+      </c>
+      <c r="H7">
+        <v>10.104987</v>
+      </c>
+      <c r="I7">
+        <v>0.7134020567608963</v>
+      </c>
+      <c r="J7">
+        <v>0.7134020567608964</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>24.84824866666667</v>
+      </c>
+      <c r="N7">
+        <v>74.544746</v>
+      </c>
+      <c r="O7">
+        <v>0.8442947638833787</v>
+      </c>
+      <c r="P7">
+        <v>0.8442947638833787</v>
+      </c>
+      <c r="Q7">
+        <v>83.69707658314466</v>
+      </c>
+      <c r="R7">
+        <v>753.273689248302</v>
+      </c>
+      <c r="S7">
+        <v>0.6023216210668576</v>
+      </c>
+      <c r="T7">
+        <v>0.6023216210668577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.368329</v>
+      </c>
+      <c r="H8">
+        <v>10.104987</v>
+      </c>
+      <c r="I8">
+        <v>0.7134020567608963</v>
+      </c>
+      <c r="J8">
+        <v>0.7134020567608964</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.008287000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.024861</v>
+      </c>
+      <c r="O8">
+        <v>0.0002815760097285016</v>
+      </c>
+      <c r="P8">
+        <v>0.0002815760097285015</v>
+      </c>
+      <c r="Q8">
+        <v>0.027913342423</v>
+      </c>
+      <c r="R8">
+        <v>0.251220081807</v>
+      </c>
+      <c r="S8">
+        <v>0.0002008769044748392</v>
+      </c>
+      <c r="T8">
+        <v>0.0002008769044748392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.402282092126498</v>
-      </c>
-      <c r="H7">
-        <v>0.402282092126498</v>
-      </c>
-      <c r="I7">
-        <v>0.1076597012709584</v>
-      </c>
-      <c r="J7">
-        <v>0.1076597012709584</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.06901444385794</v>
-      </c>
-      <c r="N7">
-        <v>4.06901444385794</v>
-      </c>
-      <c r="O7">
-        <v>0.1411056433369805</v>
-      </c>
-      <c r="P7">
-        <v>0.1411056433369805</v>
-      </c>
-      <c r="Q7">
-        <v>1.636891643368111</v>
-      </c>
-      <c r="R7">
-        <v>1.636891643368111</v>
-      </c>
-      <c r="S7">
-        <v>0.01519139140930572</v>
-      </c>
-      <c r="T7">
-        <v>0.01519139140930572</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.368329</v>
+      </c>
+      <c r="H9">
+        <v>10.104987</v>
+      </c>
+      <c r="I9">
+        <v>0.7134020567608963</v>
+      </c>
+      <c r="J9">
+        <v>0.7134020567608964</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.160894333333333</v>
+      </c>
+      <c r="N9">
+        <v>12.482683</v>
+      </c>
+      <c r="O9">
+        <v>0.1413790302017538</v>
+      </c>
+      <c r="P9">
+        <v>0.1413790302017538</v>
+      </c>
+      <c r="Q9">
+        <v>14.01526104890233</v>
+      </c>
+      <c r="R9">
+        <v>126.137349440121</v>
+      </c>
+      <c r="S9">
+        <v>0.100860090928792</v>
+      </c>
+      <c r="T9">
+        <v>0.1008600909287921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.565765</v>
+      </c>
+      <c r="I10">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J10">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.4133443333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.240033</v>
+      </c>
+      <c r="O10">
+        <v>0.01404462990513909</v>
+      </c>
+      <c r="P10">
+        <v>0.01404462990513909</v>
+      </c>
+      <c r="Q10">
+        <v>0.4912962522494445</v>
+      </c>
+      <c r="R10">
+        <v>4.421666270245</v>
+      </c>
+      <c r="S10">
+        <v>0.003535587706997053</v>
+      </c>
+      <c r="T10">
+        <v>0.003535587706997054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.565765</v>
+      </c>
+      <c r="I11">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J11">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.84824866666667</v>
+      </c>
+      <c r="N11">
+        <v>74.544746</v>
+      </c>
+      <c r="O11">
+        <v>0.8442947638833787</v>
+      </c>
+      <c r="P11">
+        <v>0.8442947638833787</v>
+      </c>
+      <c r="Q11">
+        <v>29.53433846896555</v>
+      </c>
+      <c r="R11">
+        <v>265.80904622069</v>
+      </c>
+      <c r="S11">
+        <v>0.2125423174857586</v>
+      </c>
+      <c r="T11">
+        <v>0.2125423174857587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.565765</v>
+      </c>
+      <c r="I12">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J12">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008287000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.024861</v>
+      </c>
+      <c r="O12">
+        <v>0.0002815760097285016</v>
+      </c>
+      <c r="P12">
+        <v>0.0002815760097285015</v>
+      </c>
+      <c r="Q12">
+        <v>0.009849831518333334</v>
+      </c>
+      <c r="R12">
+        <v>0.088648483665</v>
+      </c>
+      <c r="S12">
+        <v>7.088379582128359E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.088379582128359E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.565765</v>
+      </c>
+      <c r="I13">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J13">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.160894333333333</v>
+      </c>
+      <c r="N13">
+        <v>12.482683</v>
+      </c>
+      <c r="O13">
+        <v>0.1413790302017538</v>
+      </c>
+      <c r="P13">
+        <v>0.1413790302017538</v>
+      </c>
+      <c r="Q13">
+        <v>4.945590460832777</v>
+      </c>
+      <c r="R13">
+        <v>44.510314147495</v>
+      </c>
+      <c r="S13">
+        <v>0.03559068231663278</v>
+      </c>
+      <c r="T13">
+        <v>0.03559068231663279</v>
       </c>
     </row>
   </sheetData>
